--- a/需求分析建模/状态码.xlsx
+++ b/需求分析建模/状态码.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,13 +111,33 @@
   </si>
   <si>
     <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,113 +480,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:G14"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="I4">
+        <v>501</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -583,7 +629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -596,7 +642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
